--- a/excel/templates/template.xlsx
+++ b/excel/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/trunks/WBB/target/excel/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/MPrating/release/MPrating-mac/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556DC33-904F-D64F-AAF3-3AB5C35F5B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D03E7-0FF0-FA4E-88A4-DA398FC32816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
   <sheets>
     <sheet name="На ПВЗ" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
-    <t>Номер</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Тег ПВЗ</t>
+  </si>
+  <si>
+    <t>Телефон</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5335C90F-F207-0443-9CC8-071753D913C2}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,46 +483,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C5DCFB-D76E-EE4F-B8D2-546F2C037FD7}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,43 +557,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/templates/template.xlsx
+++ b/excel/templates/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/MPrating/release/MPrating-mac/excel/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/MPrating/release/MPrating-win/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D03E7-0FF0-FA4E-88A4-DA398FC32816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9FA170-0CD1-9641-B06E-9C1404CD3481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>Тег ПВЗ</t>
   </si>
   <si>
-    <t>Телефон</t>
+    <t>Номер</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
